--- a/paper/route_length_analysis_everyminute_big.xlsx
+++ b/paper/route_length_analysis_everyminute_big.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,169 +408,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="B2">
-        <v>4023.059748022677</v>
+        <v>2900.520497501805</v>
       </c>
       <c r="C2">
-        <v>1281.833078278076</v>
+        <v>2154.146905536116</v>
       </c>
       <c r="D2">
-        <v>2741.226669744602</v>
+        <v>746.3735919656888</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>0.1</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>3510.353875870167</v>
+        <v>2900.520497501805</v>
       </c>
       <c r="C3">
-        <v>1203.902513869296</v>
+        <v>2037.321285851547</v>
       </c>
       <c r="D3">
-        <v>2306.451362000869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>0.2</v>
-      </c>
-      <c r="B4">
-        <v>3321.911044465084</v>
-      </c>
-      <c r="C4">
-        <v>1180.687961137415</v>
-      </c>
-      <c r="D4">
-        <v>2141.223083327669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>0.3</v>
-      </c>
-      <c r="B5">
-        <v>3163.215598366424</v>
-      </c>
-      <c r="C5">
-        <v>1216.691071519333</v>
-      </c>
-      <c r="D5">
-        <v>1946.524526847092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>0.4</v>
-      </c>
-      <c r="B6">
-        <v>3163.215598366424</v>
-      </c>
-      <c r="C6">
-        <v>1216.691071519333</v>
-      </c>
-      <c r="D6">
-        <v>1946.524526847092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>0.5</v>
-      </c>
-      <c r="B7">
-        <v>3163.215598366424</v>
-      </c>
-      <c r="C7">
-        <v>1216.691071519333</v>
-      </c>
-      <c r="D7">
-        <v>1946.524526847092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="B8">
-        <v>3086.402863801155</v>
-      </c>
-      <c r="C8">
-        <v>1320.872337742861</v>
-      </c>
-      <c r="D8">
-        <v>1765.530526058294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="B9">
-        <v>3086.402863801155</v>
-      </c>
-      <c r="C9">
-        <v>1320.872337742861</v>
-      </c>
-      <c r="D9">
-        <v>1765.530526058294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>0.8</v>
-      </c>
-      <c r="B10">
-        <v>3086.402863801155</v>
-      </c>
-      <c r="C10">
-        <v>1320.872337742861</v>
-      </c>
-      <c r="D10">
-        <v>1765.530526058294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>0.9</v>
-      </c>
-      <c r="B11">
-        <v>2900.520497501805</v>
-      </c>
-      <c r="C11">
-        <v>2154.146905536116</v>
-      </c>
-      <c r="D11">
-        <v>746.3735919656888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2900.520497501805</v>
-      </c>
-      <c r="C12">
-        <v>2154.146905536116</v>
-      </c>
-      <c r="D12">
-        <v>746.3735919656888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>2900.520497501805</v>
-      </c>
-      <c r="C13">
-        <v>2037.321285851547</v>
-      </c>
-      <c r="D13">
         <v>863.1992116502587</v>
       </c>
     </row>
